--- a/RocksDB Java-vs-Apache Jena.xlsx
+++ b/RocksDB Java-vs-Apache Jena.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
   <si>
     <t>Machine Specs</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Disk space occupied(in MB)</t>
+  </si>
+  <si>
+    <t>RocksDb</t>
   </si>
   <si>
     <t>RocksDB</t>
@@ -216,6 +219,42 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>124.1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="15.0"/>
+      </rPr>
+      <t>ᵗ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>7.2</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>ᵗ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
       <t>custom configs</t>
@@ -324,7 +363,43 @@
     </r>
   </si>
   <si>
-    <t>Same as above, but with direct CPP bindings for RocksDB</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Same as above, but with </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>direct</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>CPP bindings</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> for RocksDB</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Disable compression </t>
@@ -400,6 +475,12 @@
   </si>
   <si>
     <t>Using LDB tool provided by RocksDb</t>
+  </si>
+  <si>
+    <t>ᵗ</t>
+  </si>
+  <si>
+    <t>Transactional B+ tree</t>
   </si>
 </sst>
 </file>
@@ -411,7 +492,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -430,13 +511,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -486,11 +567,17 @@
     </font>
     <font>
       <b/>
+      <sz val="16.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +606,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
         <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -558,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -574,231 +667,244 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1043,7 +1149,7 @@
     <col customWidth="1" min="1" max="1" width="25.63"/>
     <col customWidth="1" min="2" max="2" width="19.63"/>
     <col customWidth="1" min="3" max="3" width="22.13"/>
-    <col customWidth="1" min="4" max="4" width="34.75"/>
+    <col customWidth="1" min="4" max="4" width="47.0"/>
     <col customWidth="1" min="5" max="5" width="15.5"/>
     <col customWidth="1" min="6" max="6" width="15.88"/>
     <col customWidth="1" min="7" max="7" width="19.75"/>
@@ -1051,9 +1157,10 @@
     <col customWidth="1" min="9" max="9" width="15.75"/>
     <col customWidth="1" min="10" max="10" width="16.75"/>
     <col customWidth="1" min="11" max="11" width="23.0"/>
-    <col customWidth="1" min="12" max="12" width="11.63"/>
-    <col customWidth="1" min="13" max="14" width="25.25"/>
-    <col customWidth="1" hidden="1" min="15" max="15" width="25.63"/>
+    <col customWidth="1" hidden="1" min="12" max="12" width="11.88"/>
+    <col customWidth="1" min="13" max="13" width="11.63"/>
+    <col customWidth="1" min="14" max="15" width="25.25"/>
+    <col customWidth="1" hidden="1" min="16" max="16" width="25.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -1081,2078 +1188,2275 @@
       <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2">
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="G2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="P2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="15"/>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="15">
+      <c r="A3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="17">
         <v>100.0</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="17">
+      <c r="D3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="19">
         <v>5.7416</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="19">
         <v>15.8196</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="20">
         <f t="shared" ref="G3:G31" si="1">F3/E3</f>
         <v>2.755259858</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="20">
+      <c r="H3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="22">
         <v>3.5393</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="23">
         <v>0.7035</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="24">
         <f t="shared" ref="K3:K31" si="2">J3/I3</f>
         <v>0.198768118</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="17">
+        <v>134.0</v>
+      </c>
+      <c r="M3" s="17">
         <v>461.0</v>
       </c>
-      <c r="M3" s="23">
+      <c r="N3" s="15">
         <v>69.0</v>
       </c>
-      <c r="N3" s="24">
-        <f t="shared" ref="N3:N31" si="3">L3/M3</f>
+      <c r="O3" s="25">
+        <f t="shared" ref="O3:O31" si="3">M3/N3</f>
         <v>6.68115942</v>
       </c>
-      <c r="O3" s="25" t="str">
-        <f t="shared" ref="O3:O31" si="4">#REF!/M3</f>
-        <v>#REF!</v>
-      </c>
+      <c r="P3" s="26">
+        <f t="shared" ref="P3:P31" si="4">L3/N3</f>
+        <v>1.942028986</v>
+      </c>
+      <c r="Q3" s="27"/>
     </row>
     <row r="4">
-      <c r="B4" s="15">
+      <c r="B4" s="17">
         <v>100.0</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="17">
+      <c r="D4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19">
         <v>5.7416</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="19">
         <v>15.8196</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="20">
         <f t="shared" si="1"/>
         <v>2.755259858</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="27">
+      <c r="H4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="29">
         <v>3.3972</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="30">
         <v>0.7035</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="24">
         <f t="shared" si="2"/>
         <v>0.2070823031</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="17">
+        <v>134.0</v>
+      </c>
+      <c r="M4" s="17">
         <v>461.0</v>
       </c>
-      <c r="M4" s="23">
+      <c r="N4" s="15">
         <v>69.0</v>
       </c>
-      <c r="N4" s="24">
+      <c r="O4" s="25">
         <f t="shared" si="3"/>
         <v>6.68115942</v>
       </c>
-      <c r="O4" s="25" t="str">
+      <c r="P4" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>1.942028986</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="15">
+      <c r="B5" s="17">
         <v>100.0</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="17">
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="19">
         <v>5.7416</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="19">
         <v>15.8196</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="20">
         <f t="shared" si="1"/>
         <v>2.755259858</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="27">
+      <c r="H5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="29">
         <v>3.0616</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="30">
         <v>0.7035</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="24">
         <f t="shared" si="2"/>
         <v>0.2297818134</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="17">
+        <v>134.0</v>
+      </c>
+      <c r="M5" s="17">
         <v>461.0</v>
       </c>
-      <c r="M5" s="23">
+      <c r="N5" s="15">
         <v>69.0</v>
       </c>
-      <c r="N5" s="24">
+      <c r="O5" s="25">
         <f t="shared" si="3"/>
         <v>6.68115942</v>
       </c>
-      <c r="O5" s="25" t="str">
+      <c r="P5" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>1.942028986</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="15">
+      <c r="B6" s="17">
         <v>100.0</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17">
+      <c r="D6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="19">
         <v>5.7416</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="19">
         <v>15.8196</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="20">
         <f t="shared" si="1"/>
         <v>2.755259858</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="27">
+      <c r="H6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="29">
         <v>3.8116</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="30">
         <v>0.7035</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="24">
         <f t="shared" si="2"/>
         <v>0.1845681604</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="17">
+        <v>134.0</v>
+      </c>
+      <c r="M6" s="17">
         <v>461.0</v>
       </c>
-      <c r="M6" s="23">
+      <c r="N6" s="15">
         <v>69.0</v>
       </c>
-      <c r="N6" s="24">
+      <c r="O6" s="25">
         <f t="shared" si="3"/>
         <v>6.68115942</v>
       </c>
-      <c r="O6" s="25" t="str">
+      <c r="P6" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>1.942028986</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="15">
+      <c r="B7" s="17">
         <v>1000.0</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="C7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="19">
         <v>6.0851</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="19">
         <v>16.4224</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="20">
         <f t="shared" si="1"/>
         <v>2.698788845</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="28">
+      <c r="H7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="30">
         <v>3.469</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="30">
         <v>0.6937</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="24">
         <f t="shared" si="2"/>
         <v>0.1999711732</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="17">
+        <v>134.0</v>
+      </c>
+      <c r="M7" s="17">
         <v>461.0</v>
       </c>
-      <c r="M7" s="23">
+      <c r="N7" s="15">
         <v>69.0</v>
       </c>
-      <c r="N7" s="24">
+      <c r="O7" s="25">
         <f t="shared" si="3"/>
         <v>6.68115942</v>
       </c>
-      <c r="O7" s="25" t="str">
+      <c r="P7" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>1.942028986</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="15">
+      <c r="B8" s="17">
         <v>1000.0</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="C8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="19">
         <v>6.0851</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="19">
         <v>16.4224</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="20">
         <f t="shared" si="1"/>
         <v>2.698788845</v>
       </c>
-      <c r="H8" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="28">
+      <c r="H8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="30">
         <v>3.2016</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="30">
         <v>0.6937</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="24">
         <f t="shared" si="2"/>
         <v>0.2166729135</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="17">
+        <v>134.0</v>
+      </c>
+      <c r="M8" s="17">
         <v>461.0</v>
       </c>
-      <c r="M8" s="23">
+      <c r="N8" s="15">
         <v>69.0</v>
       </c>
-      <c r="N8" s="24">
+      <c r="O8" s="25">
         <f t="shared" si="3"/>
         <v>6.68115942</v>
       </c>
-      <c r="O8" s="25" t="str">
+      <c r="P8" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>1.942028986</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="15">
+      <c r="B9" s="17">
         <v>1000.0</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="C9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="19">
         <v>6.0851</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="19">
         <v>16.4224</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
         <v>2.698788845</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="28">
+      <c r="H9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="30">
         <v>3.0844</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="30">
         <v>0.6937</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="24">
         <f t="shared" si="2"/>
         <v>0.2249059785</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="17">
+        <v>134.0</v>
+      </c>
+      <c r="M9" s="17">
         <v>461.0</v>
       </c>
-      <c r="M9" s="23">
+      <c r="N9" s="15">
         <v>69.0</v>
       </c>
-      <c r="N9" s="24">
+      <c r="O9" s="25">
         <f t="shared" si="3"/>
         <v>6.68115942</v>
       </c>
-      <c r="O9" s="25" t="str">
+      <c r="P9" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>1.942028986</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="15">
+      <c r="B10" s="17">
         <v>1000.0</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="C10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="19">
         <v>6.0851</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="19">
         <v>16.4224</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="20">
         <f t="shared" si="1"/>
         <v>2.698788845</v>
       </c>
-      <c r="H10" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="28">
+      <c r="H10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="30">
         <v>3.2412</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="30">
         <v>0.6937</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="24">
         <f t="shared" si="2"/>
         <v>0.2140256695</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="17">
+        <v>134.0</v>
+      </c>
+      <c r="M10" s="17">
         <v>461.0</v>
       </c>
-      <c r="M10" s="23">
+      <c r="N10" s="15">
         <v>69.0</v>
       </c>
-      <c r="N10" s="24">
+      <c r="O10" s="25">
         <f t="shared" si="3"/>
         <v>6.68115942</v>
       </c>
-      <c r="O10" s="25" t="str">
+      <c r="P10" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>1.942028986</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="15">
+      <c r="B11" s="17">
         <v>10000.0</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="C11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="19">
         <v>5.9441</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="19">
         <v>14.9886</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="20">
         <f t="shared" si="1"/>
         <v>2.52159284</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="28">
+      <c r="H11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="30">
         <v>3.7185</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="30">
         <v>0.7678</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="24">
         <f t="shared" si="2"/>
         <v>0.206481108</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="17">
+        <v>134.0</v>
+      </c>
+      <c r="M11" s="17">
         <v>461.0</v>
       </c>
-      <c r="M11" s="23">
+      <c r="N11" s="15">
         <v>70.0</v>
       </c>
-      <c r="N11" s="24">
+      <c r="O11" s="25">
         <f t="shared" si="3"/>
         <v>6.585714286</v>
       </c>
-      <c r="O11" s="25" t="str">
+      <c r="P11" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>1.914285714</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="15">
+      <c r="B12" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="C12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="19">
         <v>6.0406</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="20">
         <f t="shared" si="1"/>
         <v>2.379151078</v>
       </c>
-      <c r="H12" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="28">
+      <c r="H12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="30">
         <v>5.2579</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="30">
         <v>1.1142</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="24">
         <f t="shared" si="2"/>
         <v>0.2119096978</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="17">
+        <v>136.0</v>
+      </c>
+      <c r="M12" s="17">
         <v>465.0</v>
       </c>
-      <c r="M12" s="23">
+      <c r="N12" s="15">
         <v>72.0</v>
       </c>
-      <c r="N12" s="24">
+      <c r="O12" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O12" s="25" t="str">
+      <c r="P12" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.888888889</v>
+      </c>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13">
-      <c r="B13" s="15">
+      <c r="B13" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="C13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="19">
         <v>6.0406</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="20">
         <f t="shared" si="1"/>
         <v>2.379151078</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="28">
+      <c r="H13" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="30">
         <v>5.5947</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="30">
         <v>1.1142</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="24">
         <f t="shared" si="2"/>
         <v>0.1991527696</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="17">
+        <v>136.0</v>
+      </c>
+      <c r="M13" s="17">
         <v>465.0</v>
       </c>
-      <c r="M13" s="23">
+      <c r="N13" s="15">
         <v>72.0</v>
       </c>
-      <c r="N13" s="24">
+      <c r="O13" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O13" s="25" t="str">
+      <c r="P13" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.888888889</v>
+      </c>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14">
-      <c r="B14" s="15">
+      <c r="B14" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="C14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="19">
         <v>6.0406</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="20">
         <f t="shared" si="1"/>
         <v>2.379151078</v>
       </c>
-      <c r="H14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="28">
+      <c r="H14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="30">
         <v>5.7011</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="30">
         <v>1.1142</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="24">
         <f t="shared" si="2"/>
         <v>0.1954359685</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="17">
+        <v>136.0</v>
+      </c>
+      <c r="M14" s="17">
         <v>465.0</v>
       </c>
-      <c r="M14" s="23">
+      <c r="N14" s="15">
         <v>72.0</v>
       </c>
-      <c r="N14" s="24">
+      <c r="O14" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O14" s="25" t="str">
+      <c r="P14" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.888888889</v>
+      </c>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15">
-      <c r="B15" s="15">
+      <c r="B15" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="C15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="19">
         <v>6.0406</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="20">
         <f t="shared" si="1"/>
         <v>2.379151078</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="28">
+      <c r="H15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="30">
         <v>6.569</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="30">
         <v>1.1142</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="24">
         <f t="shared" si="2"/>
         <v>0.1696148577</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="17">
+        <v>136.0</v>
+      </c>
+      <c r="M15" s="17">
         <v>465.0</v>
       </c>
-      <c r="M15" s="23">
+      <c r="N15" s="15">
         <v>72.0</v>
       </c>
-      <c r="N15" s="24">
+      <c r="O15" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O15" s="25" t="str">
+      <c r="P15" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.888888889</v>
+      </c>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16">
-      <c r="B16" s="15">
+      <c r="B16" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="C16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="19">
         <v>5.9872</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="20">
         <f t="shared" si="1"/>
         <v>2.400370791</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="21">
+      <c r="H16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="23">
         <v>8.9706</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="23">
         <v>1.1142</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="24">
         <f t="shared" si="2"/>
         <v>0.1242057387</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="17">
+        <v>136.0</v>
+      </c>
+      <c r="M16" s="17">
         <v>465.0</v>
       </c>
-      <c r="M16" s="23">
+      <c r="N16" s="15">
         <v>72.0</v>
       </c>
-      <c r="N16" s="24">
+      <c r="O16" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O16" s="25" t="str">
+      <c r="P16" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.888888889</v>
+      </c>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17">
-      <c r="B17" s="15">
+      <c r="B17" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="17">
+      <c r="C17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="19">
         <v>6.3038</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="20">
         <f t="shared" si="1"/>
         <v>2.279815349</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="21">
+      <c r="H17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="23">
         <v>11.656</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="23">
         <v>1.1142</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="24">
         <f t="shared" si="2"/>
         <v>0.09559025395</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="17">
+        <v>135.0</v>
+      </c>
+      <c r="M17" s="17">
         <v>465.0</v>
       </c>
-      <c r="M17" s="23">
+      <c r="N17" s="15">
         <v>72.0</v>
       </c>
-      <c r="N17" s="24">
+      <c r="O17" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O17" s="25" t="str">
+      <c r="P17" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.875</v>
+      </c>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18">
-      <c r="B18" s="15">
+      <c r="B18" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="C18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="19">
         <v>6.2692</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="20">
         <f t="shared" si="1"/>
         <v>2.292397754</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="21">
+      <c r="H18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="23">
         <v>7.5091</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="23">
         <v>1.1142</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="24">
         <f t="shared" si="2"/>
         <v>0.1483799656</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="17">
+        <v>135.0</v>
+      </c>
+      <c r="M18" s="17">
         <v>465.0</v>
       </c>
-      <c r="M18" s="23">
+      <c r="N18" s="15">
         <v>72.0</v>
       </c>
-      <c r="N18" s="24">
+      <c r="O18" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O18" s="25" t="str">
+      <c r="P18" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.875</v>
+      </c>
+      <c r="Q18" s="18"/>
     </row>
     <row r="19">
-      <c r="B19" s="15">
+      <c r="B19" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="17">
+      <c r="C19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="19">
         <v>6.6278</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="20">
         <f t="shared" si="1"/>
         <v>2.168366577</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="21">
+      <c r="H19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="23">
         <v>5.0867</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="23">
         <v>1.1142</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="24">
         <f t="shared" si="2"/>
         <v>0.2190418149</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="17">
+        <v>135.0</v>
+      </c>
+      <c r="M19" s="17">
         <v>465.0</v>
       </c>
-      <c r="M19" s="23">
+      <c r="N19" s="15">
         <v>72.0</v>
       </c>
-      <c r="N19" s="24">
+      <c r="O19" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O19" s="25" t="str">
+      <c r="P19" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.875</v>
+      </c>
+      <c r="Q19" s="18"/>
     </row>
     <row r="20">
-      <c r="B20" s="15">
+      <c r="B20" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="17">
+      <c r="C20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="19">
         <v>6.3681</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="20">
         <f t="shared" si="1"/>
         <v>2.256795591</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="H20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="23">
         <v>5.2183</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="23">
         <v>1.1142</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="24">
         <f t="shared" si="2"/>
         <v>0.2135178123</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="17">
+        <v>140.0</v>
+      </c>
+      <c r="M20" s="17">
         <v>465.0</v>
       </c>
-      <c r="M20" s="23">
+      <c r="N20" s="15">
         <v>72.0</v>
       </c>
-      <c r="N20" s="24">
+      <c r="O20" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O20" s="25" t="str">
+      <c r="P20" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.944444444</v>
+      </c>
+      <c r="Q20" s="18"/>
     </row>
     <row r="21">
-      <c r="B21" s="15">
+      <c r="B21" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="C21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="19">
         <v>6.6151</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="20">
         <f t="shared" si="1"/>
         <v>2.172529516</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="21">
+      <c r="H21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="23">
         <v>5.6711</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="23">
         <v>1.1142</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="24">
         <f t="shared" si="2"/>
         <v>0.1964698207</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="17">
+        <v>136.0</v>
+      </c>
+      <c r="M21" s="17">
         <v>465.0</v>
       </c>
-      <c r="M21" s="23">
+      <c r="N21" s="15">
         <v>72.0</v>
       </c>
-      <c r="N21" s="24">
+      <c r="O21" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O21" s="25" t="str">
+      <c r="P21" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.888888889</v>
+      </c>
+      <c r="Q21" s="18"/>
     </row>
     <row r="22">
-      <c r="B22" s="15">
+      <c r="B22" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="C22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="19">
         <v>6.6893</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="20">
         <f t="shared" si="1"/>
         <v>2.148431076</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="21">
+      <c r="H22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="23">
         <v>9.6767</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="23">
         <v>1.1142</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="24">
         <f t="shared" si="2"/>
         <v>0.1151425589</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="17">
+        <v>134.0</v>
+      </c>
+      <c r="M22" s="17">
         <v>465.0</v>
       </c>
-      <c r="M22" s="23">
+      <c r="N22" s="15">
         <v>72.0</v>
       </c>
-      <c r="N22" s="24">
+      <c r="O22" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O22" s="25" t="str">
+      <c r="P22" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.861111111</v>
+      </c>
+      <c r="Q22" s="18"/>
     </row>
     <row r="23">
-      <c r="B23" s="15">
+      <c r="B23" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="C23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="19">
         <v>6.5364</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="20">
         <f t="shared" si="1"/>
         <v>2.198687351</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="21">
+      <c r="H23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="23">
         <v>14.6724</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="23">
         <v>1.1142</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="24">
         <f t="shared" si="2"/>
         <v>0.07593849677</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="17">
+        <v>134.0</v>
+      </c>
+      <c r="M23" s="17">
         <v>465.0</v>
       </c>
-      <c r="M23" s="23">
+      <c r="N23" s="15">
         <v>72.0</v>
       </c>
-      <c r="N23" s="24">
+      <c r="O23" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O23" s="25" t="str">
+      <c r="P23" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.861111111</v>
+      </c>
+      <c r="Q23" s="18"/>
     </row>
     <row r="24">
-      <c r="B24" s="15">
+      <c r="B24" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="C24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="19">
         <v>6.1198</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="20">
         <f t="shared" si="1"/>
         <v>2.348361058</v>
       </c>
-      <c r="H24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="21">
+      <c r="H24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="23">
         <v>3.7361</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="23">
         <v>1.1142</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="31">
         <f t="shared" si="2"/>
         <v>0.2982254222</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="17">
+        <v>197.0</v>
+      </c>
+      <c r="M24" s="17">
         <v>465.0</v>
       </c>
-      <c r="M24" s="23">
+      <c r="N24" s="15">
         <v>140.0</v>
       </c>
-      <c r="N24" s="24">
+      <c r="O24" s="25">
         <f t="shared" si="3"/>
         <v>3.321428571</v>
       </c>
-      <c r="O24" s="25" t="str">
+      <c r="P24" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.407142857</v>
+      </c>
+      <c r="Q24" s="18"/>
     </row>
     <row r="25">
-      <c r="B25" s="15">
+      <c r="B25" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="C25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="19">
         <v>6.7633</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="20">
         <f t="shared" si="1"/>
         <v>2.124924223</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="H25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="23">
         <v>3.7032</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="23">
         <v>1.1142</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="31">
         <f t="shared" si="2"/>
         <v>0.300874919</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="17">
+        <v>197.0</v>
+      </c>
+      <c r="M25" s="17">
         <v>465.0</v>
       </c>
-      <c r="M25" s="23">
+      <c r="N25" s="15">
         <v>140.0</v>
       </c>
-      <c r="N25" s="24">
+      <c r="O25" s="25">
         <f t="shared" si="3"/>
         <v>3.321428571</v>
       </c>
-      <c r="O25" s="25" t="str">
+      <c r="P25" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.407142857</v>
+      </c>
+      <c r="Q25" s="18"/>
     </row>
     <row r="26" ht="19.5" customHeight="1">
-      <c r="B26" s="15">
+      <c r="B26" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="17">
+      <c r="C26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="19">
         <v>6.0443</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="20">
         <f t="shared" si="1"/>
         <v>2.377694688</v>
       </c>
-      <c r="H26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="28">
+      <c r="H26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="30">
         <v>5.4595</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="30">
         <v>1.1142</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="24">
         <f t="shared" si="2"/>
         <v>0.2040846231</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="17">
+        <v>136.0</v>
+      </c>
+      <c r="M26" s="17">
         <v>465.0</v>
       </c>
-      <c r="M26" s="23">
+      <c r="N26" s="15">
         <v>72.0</v>
       </c>
-      <c r="N26" s="24">
+      <c r="O26" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O26" s="25" t="str">
+      <c r="P26" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.888888889</v>
+      </c>
+      <c r="Q26" s="18"/>
     </row>
     <row r="27">
-      <c r="B27" s="15">
+      <c r="B27" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="C27" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="19">
         <v>6.4311</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="20">
         <f t="shared" si="1"/>
         <v>2.23468769</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="28">
+      <c r="H27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="30">
         <v>5.2327</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="30">
         <v>1.1142</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="24">
         <f t="shared" si="2"/>
         <v>0.2129302272</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="17">
+        <v>136.0</v>
+      </c>
+      <c r="M27" s="17">
         <v>465.0</v>
       </c>
-      <c r="M27" s="23">
+      <c r="N27" s="15">
         <v>72.0</v>
       </c>
-      <c r="N27" s="24">
+      <c r="O27" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O27" s="25" t="str">
+      <c r="P27" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.888888889</v>
+      </c>
+      <c r="Q27" s="18"/>
     </row>
     <row r="28">
-      <c r="B28" s="15">
+      <c r="B28" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="17">
+      <c r="C28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="19">
         <v>6.3891</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="20">
         <f t="shared" si="1"/>
         <v>2.249377847</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="28">
+      <c r="H28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="30">
         <v>5.2411</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="30">
         <v>1.1142</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="24">
         <f t="shared" si="2"/>
         <v>0.2125889603</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="17">
+        <v>136.0</v>
+      </c>
+      <c r="M28" s="17">
         <v>465.0</v>
       </c>
-      <c r="M28" s="23">
+      <c r="N28" s="15">
         <v>72.0</v>
       </c>
-      <c r="N28" s="24">
+      <c r="O28" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O28" s="25" t="str">
+      <c r="P28" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.888888889</v>
+      </c>
+      <c r="Q28" s="18"/>
     </row>
     <row r="29">
-      <c r="B29" s="15">
+      <c r="B29" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="17">
+      <c r="C29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="19">
         <v>6.6079</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="20">
         <f t="shared" si="1"/>
         <v>2.174896715</v>
       </c>
-      <c r="H29" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="28">
+      <c r="H29" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="30">
         <v>5.7437</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="30">
         <v>1.1142</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="24">
         <f t="shared" si="2"/>
         <v>0.1939864547</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="17">
+        <v>141.0</v>
+      </c>
+      <c r="M29" s="17">
         <v>465.0</v>
       </c>
-      <c r="M29" s="23">
+      <c r="N29" s="15">
         <v>72.0</v>
       </c>
-      <c r="N29" s="24">
+      <c r="O29" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O29" s="25" t="str">
+      <c r="P29" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.958333333</v>
+      </c>
+      <c r="Q29" s="18"/>
     </row>
     <row r="30">
-      <c r="B30" s="15">
+      <c r="B30" s="17">
         <v>100000.0</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="17">
+      <c r="C30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="19">
         <v>6.7924</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="19">
         <v>14.3715</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="20">
         <f t="shared" si="1"/>
         <v>2.115820623</v>
       </c>
-      <c r="H30" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="28">
+      <c r="H30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="30">
         <v>5.7303</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="30">
         <v>1.1142</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="24">
         <f t="shared" si="2"/>
         <v>0.1944400817</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="17">
+        <v>141.0</v>
+      </c>
+      <c r="M30" s="17">
         <v>465.0</v>
       </c>
-      <c r="M30" s="23">
+      <c r="N30" s="15">
         <v>72.0</v>
       </c>
-      <c r="N30" s="24">
+      <c r="O30" s="25">
         <f t="shared" si="3"/>
         <v>6.458333333</v>
       </c>
-      <c r="O30" s="25" t="str">
+      <c r="P30" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+        <v>1.958333333</v>
+      </c>
+      <c r="Q30" s="18"/>
     </row>
     <row r="31">
-      <c r="B31" s="15">
+      <c r="B31" s="17">
         <v>1000000.0</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="17">
+      <c r="C31" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="19">
         <v>6.4439</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="19">
         <v>16.1738</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="20">
         <f t="shared" si="1"/>
         <v>2.509939633</v>
       </c>
-      <c r="H31" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="32">
+      <c r="H31" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="34">
         <v>25.5561</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J31" s="35">
         <v>3.5095</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="24">
         <f t="shared" si="2"/>
         <v>0.1373253352</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="17">
+        <v>154.0</v>
+      </c>
+      <c r="M31" s="17">
         <v>507.0</v>
       </c>
-      <c r="M31" s="23">
+      <c r="N31" s="15">
         <v>88.0</v>
       </c>
-      <c r="N31" s="24">
+      <c r="O31" s="25">
         <f t="shared" si="3"/>
         <v>5.761363636</v>
       </c>
-      <c r="O31" s="25" t="str">
+      <c r="P31" s="26">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="37"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
     </row>
     <row r="33">
-      <c r="A33" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="15">
+      <c r="A33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="17">
         <v>1000000.0</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="17">
+      <c r="C33" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="47">
         <v>41.8304</v>
       </c>
-      <c r="F33" s="17">
-        <v>115.408</v>
-      </c>
-      <c r="G33" s="18">
-        <f t="shared" ref="G33:G40" si="5">F33/E33</f>
-        <v>2.758950428</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="21">
+      <c r="F33" s="47">
+        <v>121.477</v>
+      </c>
+      <c r="G33" s="20">
+        <f>F33/E33</f>
+        <v>2.904036299</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="49">
         <v>62.466</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="23">
         <v>7.039</v>
       </c>
-      <c r="K33" s="22">
-        <f t="shared" ref="K33:K36" si="6">J33/I33</f>
+      <c r="K33" s="24">
+        <f>J33/I33</f>
         <v>0.1126853008</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="17">
+        <v>742.0</v>
+      </c>
+      <c r="M33" s="17">
         <v>4600.0</v>
       </c>
-      <c r="M33" s="23">
+      <c r="N33" s="15">
         <v>678.0</v>
       </c>
-      <c r="N33" s="24">
-        <f t="shared" ref="N33:N36" si="7">L33/M33</f>
+      <c r="O33" s="25">
+        <f t="shared" ref="O33:O41" si="5">M33/N33</f>
         <v>6.784660767</v>
       </c>
-      <c r="O33" s="25" t="str">
-        <f t="shared" ref="O33:O36" si="8">#REF!/M33</f>
-        <v>#REF!</v>
+      <c r="P33" s="26">
+        <f>L33/N33</f>
+        <v>1.09439528</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="15">
+      <c r="F34" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="20">
+        <f>124.1/41.8</f>
+        <v>2.968899522</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="24">
+        <f>7.2/62.5</f>
+        <v>0.1152</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17">
+        <v>4600.0</v>
+      </c>
+      <c r="N34" s="15">
+        <v>678.0</v>
+      </c>
+      <c r="O34" s="25">
+        <f t="shared" si="5"/>
+        <v>6.784660767</v>
+      </c>
+      <c r="P34" s="26"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="17">
         <v>1000000.0</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="44" t="s">
+      <c r="C35" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="45">
+      <c r="D35" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="51">
         <v>46.7662</v>
       </c>
-      <c r="F34" s="17">
-        <v>115.408</v>
-      </c>
-      <c r="G34" s="18">
+      <c r="F35" s="47">
+        <v>121.477</v>
+      </c>
+      <c r="G35" s="20">
+        <f t="shared" ref="G35:G41" si="6">F35/E35</f>
+        <v>2.597538393</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="23">
+        <v>44.4457</v>
+      </c>
+      <c r="J35" s="23">
+        <v>7.039</v>
+      </c>
+      <c r="K35" s="24">
+        <f t="shared" ref="K35:K37" si="7">J35/I35</f>
+        <v>0.158373026</v>
+      </c>
+      <c r="L35" s="17">
+        <v>784.0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>4600.0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>341.0</v>
+      </c>
+      <c r="O35" s="25">
         <f t="shared" si="5"/>
-        <v>2.467765181</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="21">
-        <v>44.4457</v>
-      </c>
-      <c r="J34" s="21">
+        <v>13.48973607</v>
+      </c>
+      <c r="P35" s="26">
+        <f t="shared" ref="P35:P37" si="8">L35/N35</f>
+        <v>2.299120235</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="17">
+        <v>1000000.0</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="51">
+        <v>45.1696</v>
+      </c>
+      <c r="F36" s="47">
+        <v>121.477</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" si="6"/>
+        <v>2.689353016</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="23">
+        <v>41.8457</v>
+      </c>
+      <c r="J36" s="23">
         <v>7.039</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K36" s="24">
+        <f t="shared" si="7"/>
+        <v>0.1682132214</v>
+      </c>
+      <c r="L36" s="17">
+        <v>784.0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>4600.0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>341.0</v>
+      </c>
+      <c r="O36" s="25">
+        <f t="shared" si="5"/>
+        <v>13.48973607</v>
+      </c>
+      <c r="P36" s="26">
+        <f t="shared" si="8"/>
+        <v>2.299120235</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="52">
+        <v>1000000.0</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="54">
+        <v>44.806</v>
+      </c>
+      <c r="F37" s="47">
+        <v>121.477</v>
+      </c>
+      <c r="G37" s="55">
         <f t="shared" si="6"/>
-        <v>0.158373026</v>
-      </c>
-      <c r="L34" s="15">
+        <v>2.711177074</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="56">
+        <v>34.7649</v>
+      </c>
+      <c r="J37" s="49">
+        <v>7.039</v>
+      </c>
+      <c r="K37" s="31">
+        <f t="shared" si="7"/>
+        <v>0.2024743347</v>
+      </c>
+      <c r="L37" s="18">
+        <v>1400.0</v>
+      </c>
+      <c r="M37" s="52">
         <v>4600.0</v>
       </c>
-      <c r="M34" s="23">
-        <v>341.0</v>
-      </c>
-      <c r="N34" s="24">
-        <f t="shared" si="7"/>
-        <v>13.48973607</v>
-      </c>
-      <c r="O34" s="25" t="str">
+      <c r="N37" s="46">
+        <v>1400.0</v>
+      </c>
+      <c r="O37" s="57">
+        <f t="shared" si="5"/>
+        <v>3.285714286</v>
+      </c>
+      <c r="P37" s="26">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="58"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="52">
         <v>1000000.0</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="45">
-        <v>45.1696</v>
-      </c>
-      <c r="F35" s="17">
-        <v>115.408</v>
-      </c>
-      <c r="G35" s="18">
+      <c r="C38" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="54">
+        <v>44.806</v>
+      </c>
+      <c r="F38" s="47">
+        <v>121.477</v>
+      </c>
+      <c r="G38" s="55">
+        <f t="shared" si="6"/>
+        <v>2.711177074</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="56">
+        <v>17.8</v>
+      </c>
+      <c r="J38" s="49">
+        <v>7.039</v>
+      </c>
+      <c r="K38" s="31">
+        <f>J37/I38</f>
+        <v>0.3954494382</v>
+      </c>
+      <c r="M38" s="52">
+        <v>4600.0</v>
+      </c>
+      <c r="N38" s="46">
+        <v>1400.0</v>
+      </c>
+      <c r="O38" s="57">
         <f t="shared" si="5"/>
-        <v>2.554992738</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="21">
-        <v>41.8457</v>
-      </c>
-      <c r="J35" s="21">
+        <v>3.285714286</v>
+      </c>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="58"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="17">
+        <v>1000000.0</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="59">
+        <v>42.5988</v>
+      </c>
+      <c r="F39" s="19">
+        <v>121.477</v>
+      </c>
+      <c r="G39" s="20">
+        <f t="shared" si="6"/>
+        <v>2.851653098</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="56">
+        <v>43.4521</v>
+      </c>
+      <c r="J39" s="23">
         <v>7.039</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K39" s="24">
+        <f t="shared" ref="K39:K41" si="9">J39/I39</f>
+        <v>0.1619944721</v>
+      </c>
+      <c r="L39" s="18">
+        <v>1400.0</v>
+      </c>
+      <c r="M39" s="17">
+        <v>4600.0</v>
+      </c>
+      <c r="N39" s="15">
+        <v>1400.0</v>
+      </c>
+      <c r="O39" s="25">
+        <f t="shared" si="5"/>
+        <v>3.285714286</v>
+      </c>
+      <c r="P39" s="26">
+        <f t="shared" ref="P39:P41" si="10">L39/N39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="17">
+        <v>1000000.0</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="59">
+        <v>42.9731</v>
+      </c>
+      <c r="F40" s="19">
+        <v>121.477</v>
+      </c>
+      <c r="G40" s="20">
         <f t="shared" si="6"/>
-        <v>0.1682132214</v>
-      </c>
-      <c r="L35" s="15">
-        <v>4600.0</v>
-      </c>
-      <c r="M35" s="23">
-        <v>341.0</v>
-      </c>
-      <c r="N35" s="24">
-        <f t="shared" si="7"/>
-        <v>13.48973607</v>
-      </c>
-      <c r="O35" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="46">
-        <v>1000000.0</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="49">
-        <v>44.806</v>
-      </c>
-      <c r="F36" s="50">
-        <v>121.477</v>
-      </c>
-      <c r="G36" s="51">
-        <f t="shared" si="5"/>
-        <v>2.711177074</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="52">
-        <v>34.7649</v>
-      </c>
-      <c r="J36" s="53">
+        <v>2.826814914</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="56">
+        <v>45.0402</v>
+      </c>
+      <c r="J40" s="23">
         <v>7.039</v>
       </c>
-      <c r="K36" s="29">
-        <f t="shared" si="6"/>
-        <v>0.2024743347</v>
-      </c>
-      <c r="L36" s="46">
-        <v>4600.0</v>
-      </c>
-      <c r="M36" s="47">
-        <v>1400.0</v>
-      </c>
-      <c r="N36" s="54">
-        <f t="shared" si="7"/>
-        <v>3.285714286</v>
-      </c>
-      <c r="O36" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="46">
-        <v>1000000.0</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="49">
-        <v>44.806</v>
-      </c>
-      <c r="F37" s="50">
-        <v>121.477</v>
-      </c>
-      <c r="G37" s="51">
-        <f t="shared" si="5"/>
-        <v>2.711177074</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="52">
-        <v>17.8</v>
-      </c>
-      <c r="J37" s="53">
-        <v>7.039</v>
-      </c>
-      <c r="K37" s="29">
-        <f>J36/I37</f>
-        <v>0.3954494382</v>
-      </c>
-      <c r="O37" s="25"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="15">
-        <v>1000000.0</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="55">
-        <v>42.5988</v>
-      </c>
-      <c r="F38" s="17">
-        <v>121.477</v>
-      </c>
-      <c r="G38" s="18">
-        <f t="shared" si="5"/>
-        <v>2.851653098</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="52">
-        <v>43.4521</v>
-      </c>
-      <c r="J38" s="21">
-        <v>7.039</v>
-      </c>
-      <c r="K38" s="22">
-        <f t="shared" ref="K38:K40" si="9">J38/I38</f>
-        <v>0.1619944721</v>
-      </c>
-      <c r="L38" s="15">
-        <v>4600.0</v>
-      </c>
-      <c r="M38" s="23">
-        <v>1400.0</v>
-      </c>
-      <c r="N38" s="24">
-        <f t="shared" ref="N38:N40" si="10">L38/M38</f>
-        <v>3.285714286</v>
-      </c>
-      <c r="O38" s="25" t="str">
-        <f t="shared" ref="O38:O40" si="11">#REF!/M38</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="15">
-        <v>1000000.0</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="55">
-        <v>42.9731</v>
-      </c>
-      <c r="F39" s="17">
-        <v>121.477</v>
-      </c>
-      <c r="G39" s="18">
-        <f t="shared" si="5"/>
-        <v>2.826814914</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="52">
-        <v>45.0402</v>
-      </c>
-      <c r="J39" s="21">
-        <v>7.039</v>
-      </c>
-      <c r="K39" s="22">
+      <c r="K40" s="24">
         <f t="shared" si="9"/>
         <v>0.1562826098</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L40" s="18">
+        <v>1400.0</v>
+      </c>
+      <c r="M40" s="17">
         <v>4600.0</v>
       </c>
-      <c r="M39" s="23">
+      <c r="N40" s="15">
         <v>1400.0</v>
       </c>
-      <c r="N39" s="24">
+      <c r="O40" s="25">
+        <f t="shared" si="5"/>
+        <v>3.285714286</v>
+      </c>
+      <c r="P40" s="26">
         <f t="shared" si="10"/>
-        <v>3.285714286</v>
-      </c>
-      <c r="O39" s="25" t="str">
-        <f t="shared" si="11"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="17">
         <v>1000000.0</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="55">
+      <c r="C41" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="59">
         <v>42.3029</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="19">
         <v>121.477</v>
       </c>
-      <c r="G40" s="18">
-        <f t="shared" si="5"/>
+      <c r="G41" s="20">
+        <f t="shared" si="6"/>
         <v>2.871599819</v>
       </c>
-      <c r="H40" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="52">
+      <c r="H41" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="56">
         <v>61.9078</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J41" s="23">
         <v>7.039</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K41" s="24">
         <f t="shared" si="9"/>
         <v>0.113701343</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L41" s="17">
+        <v>742.0</v>
+      </c>
+      <c r="M41" s="17">
         <v>4600.0</v>
       </c>
-      <c r="M40" s="23">
+      <c r="N41" s="15">
         <v>678.0</v>
       </c>
-      <c r="N40" s="24">
+      <c r="O41" s="25">
+        <f t="shared" si="5"/>
+        <v>6.784660767</v>
+      </c>
+      <c r="P41" s="26">
         <f t="shared" si="10"/>
-        <v>6.784660767</v>
-      </c>
-      <c r="O40" s="25" t="str">
-        <f t="shared" si="11"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
+        <v>1.09439528</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
     </row>
     <row r="43">
-      <c r="A43" s="68"/>
-      <c r="B43" s="69"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
+      <c r="A43" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="67"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
     </row>
     <row r="44">
-      <c r="A44" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="72"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="73"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
     </row>
     <row r="45">
-      <c r="A45" s="77"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
+      <c r="A45" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
     </row>
     <row r="46">
-      <c r="A46" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
+      <c r="A46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
     </row>
     <row r="47">
-      <c r="C47" s="78"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
+      <c r="A47" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="82"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
     </row>
     <row r="48">
-      <c r="A48" s="79"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
+      <c r="A48" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="82"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
     </row>
     <row r="49">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
     </row>
     <row r="50">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
     </row>
     <row r="51">
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
     </row>
     <row r="52">
-      <c r="D52" s="81"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
     </row>
     <row r="53">
-      <c r="D53" s="81"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
     </row>
     <row r="54">
-      <c r="D54" s="81"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
     </row>
     <row r="55">
-      <c r="D55" s="81"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
     </row>
     <row r="56">
-      <c r="D56" s="81"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
     </row>
     <row r="57">
-      <c r="D57" s="81"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
     </row>
     <row r="58">
-      <c r="D58" s="81"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
     </row>
     <row r="59">
-      <c r="D59" s="81"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="86"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="A3:A31"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="H33:H34"/>
   </mergeCells>
-  <conditionalFormatting sqref="K41:L50">
+  <conditionalFormatting sqref="K42:M51">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:L50">
+  <conditionalFormatting sqref="K42:M51">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
